--- a/11/Results.xlsx
+++ b/11/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -49,10 +49,10 @@
     <t xml:space="preserve">leaky</t>
   </si>
   <si>
-    <t xml:space="preserve">pca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 components</t>
+    <t xml:space="preserve">PCA (10 Componenets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -162,14 +162,12 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,6 +532,12 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="1" t="n">
